--- a/flight_info.xlsx
+++ b/flight_info.xlsx
@@ -473,7 +473,7 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="J15" activeCellId="0" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.55078125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/flight_info.xlsx
+++ b/flight_info.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Flight Schedule" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="Flight Schedule_2" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="33">
   <si>
     <t xml:space="preserve">First Name</t>
   </si>
@@ -79,16 +79,10 @@
     <t xml:space="preserve">Marriott Hotel</t>
   </si>
   <si>
-    <t xml:space="preserve">Tural</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mammadov</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J2 065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Park Inn Hotel</t>
+    <t xml:space="preserve">Dayanat1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iskandarli1</t>
   </si>
   <si>
     <t xml:space="preserve">Leyla</t>
@@ -103,10 +97,10 @@
     <t xml:space="preserve">Fairmont Hotel</t>
   </si>
   <si>
-    <t xml:space="preserve">Kamran</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aliyev</t>
+    <t xml:space="preserve">Kamrana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aliyeva</t>
   </si>
   <si>
     <t xml:space="preserve">QR489</t>
@@ -228,56 +222,60 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -470,267 +468,280 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J15" activeCellId="0" sqref="J15"/>
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.55078125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="0" width="13.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="13.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="36.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="12.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="10.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="1" width="13.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="13.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="36.33"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="6" t="n">
+      <c r="D2" s="7" t="n">
         <v>45861</v>
       </c>
-      <c r="E2" s="7" t="n">
+      <c r="E2" s="8" t="n">
         <v>0.96875</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="7" t="n">
+      <c r="G2" s="8" t="n">
         <v>0.875</v>
       </c>
-      <c r="H2" s="6" t="n">
+      <c r="H2" s="7" t="n">
         <v>45864</v>
       </c>
-      <c r="I2" s="7" t="n">
+      <c r="I2" s="8" t="n">
         <v>0.614583333333333</v>
       </c>
-      <c r="J2" s="8" t="n">
+      <c r="J2" s="9" t="n">
         <v>0.524305555555556</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="10" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="11" t="n">
+      <c r="D3" s="12" t="n">
         <v>45860</v>
       </c>
-      <c r="E3" s="12" t="n">
+      <c r="E3" s="13" t="n">
         <v>0.694444444444444</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="12" t="n">
+      <c r="G3" s="13" t="n">
         <v>0.635416666666667</v>
       </c>
-      <c r="H3" s="11" t="n">
+      <c r="H3" s="12" t="n">
         <v>45863</v>
       </c>
-      <c r="I3" s="12" t="n">
+      <c r="I3" s="13" t="n">
         <v>0.430555555555556</v>
       </c>
-      <c r="J3" s="12" t="n">
+      <c r="J3" s="13" t="n">
         <v>0.364583333333333</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="K3" s="10" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="10" t="s">
+    <row r="4" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="11" t="n">
-        <v>45862</v>
-      </c>
-      <c r="E4" s="12" t="n">
-        <v>0.395833333333333</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="12" t="n">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="H4" s="11" t="n">
-        <v>45865</v>
-      </c>
-      <c r="I4" s="12" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J4" s="12" t="n">
-        <v>0.427083333333333</v>
-      </c>
-      <c r="K4" s="9" t="s">
+      <c r="C4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="7" t="n">
+        <v>45861</v>
+      </c>
+      <c r="E4" s="8" t="n">
+        <v>0.96875</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="8" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="H4" s="7" t="n">
+        <v>45864</v>
+      </c>
+      <c r="I4" s="8" t="n">
+        <v>0.614583333333333</v>
+      </c>
+      <c r="J4" s="9" t="n">
+        <v>0.524305555555556</v>
+      </c>
+      <c r="K4" s="10" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="D5" s="12" t="n">
+        <v>45859</v>
+      </c>
+      <c r="E5" s="13" t="n">
+        <v>0.138888888888889</v>
+      </c>
+      <c r="F5" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="11" t="n">
-        <v>45859</v>
-      </c>
-      <c r="E5" s="12" t="n">
-        <v>0.138888888888889</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5" s="12" t="n">
+      <c r="G5" s="13" t="n">
         <v>0.0416666666666667</v>
       </c>
-      <c r="H5" s="11" t="n">
+      <c r="H5" s="12" t="n">
         <v>45862</v>
       </c>
-      <c r="I5" s="12" t="n">
+      <c r="I5" s="13" t="n">
         <v>0.256944444444444</v>
       </c>
-      <c r="J5" s="12" t="n">
+      <c r="J5" s="13" t="n">
         <v>0.166666666666667</v>
       </c>
-      <c r="K5" s="9" t="s">
+      <c r="K5" s="10" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="D6" s="12" t="n">
+        <v>45861</v>
+      </c>
+      <c r="E6" s="13" t="n">
+        <v>0.784722222222222</v>
+      </c>
+      <c r="F6" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="11" t="n">
-        <v>45861</v>
-      </c>
-      <c r="E6" s="12" t="n">
-        <v>0.784722222222222</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="12" t="n">
+      <c r="G6" s="13" t="n">
         <v>0.708333333333333</v>
       </c>
-      <c r="H6" s="11" t="n">
+      <c r="H6" s="12" t="n">
         <v>45864</v>
       </c>
-      <c r="I6" s="12" t="n">
+      <c r="I6" s="13" t="n">
         <v>0.46875</v>
       </c>
-      <c r="J6" s="12" t="n">
+      <c r="J6" s="13" t="n">
         <v>0.395833333333333</v>
       </c>
-      <c r="K6" s="9" t="s">
+      <c r="K6" s="10" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="D7" s="12" t="n">
+        <v>45863</v>
+      </c>
+      <c r="E7" s="13" t="n">
+        <v>0.850694444444444</v>
+      </c>
+      <c r="F7" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" s="11" t="n">
-        <v>45863</v>
-      </c>
-      <c r="E7" s="12" t="n">
-        <v>0.850694444444444</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="G7" s="12" t="n">
+      <c r="G7" s="13" t="n">
         <v>0.78125</v>
       </c>
-      <c r="H7" s="11" t="n">
+      <c r="H7" s="12" t="n">
         <v>45866</v>
       </c>
-      <c r="I7" s="12" t="n">
+      <c r="I7" s="13" t="n">
         <v>0.645833333333333</v>
       </c>
-      <c r="J7" s="12" t="n">
+      <c r="J7" s="13" t="n">
         <v>0.569444444444444</v>
       </c>
-      <c r="K7" s="9" t="s">
+      <c r="K7" s="10" t="s">
         <v>14</v>
       </c>
+    </row>
+    <row r="8" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="10"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/flight_info.xlsx
+++ b/flight_info.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="34">
   <si>
     <t xml:space="preserve">First Name</t>
   </si>
@@ -40,13 +40,16 @@
     <t xml:space="preserve">Property Name</t>
   </si>
   <si>
-    <t xml:space="preserve">Vehicle Standby</t>
+    <t xml:space="preserve">Vehicle Standby Arrival</t>
   </si>
   <si>
     <t xml:space="preserve">Departure Date</t>
   </si>
   <si>
     <t xml:space="preserve">Departure Time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vehicle Standby Departure</t>
   </si>
   <si>
     <t xml:space="preserve">Status</t>
@@ -470,8 +473,8 @@
   </sheetPr>
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J2" activeCellId="0" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.55078125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -514,21 +517,21 @@
         <v>8</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D2" s="7" t="n">
         <v>45861</v>
@@ -537,7 +540,7 @@
         <v>0.96875</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G2" s="8" t="n">
         <v>0.875</v>
@@ -552,18 +555,18 @@
         <v>0.524305555555556</v>
       </c>
       <c r="K2" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D3" s="12" t="n">
         <v>45860</v>
@@ -572,7 +575,7 @@
         <v>0.694444444444444</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G3" s="13" t="n">
         <v>0.635416666666667</v>
@@ -587,18 +590,18 @@
         <v>0.364583333333333</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D4" s="7" t="n">
         <v>45861</v>
@@ -607,7 +610,7 @@
         <v>0.96875</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G4" s="8" t="n">
         <v>0.875</v>
@@ -622,18 +625,18 @@
         <v>0.524305555555556</v>
       </c>
       <c r="K4" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" s="12" t="n">
         <v>45859</v>
@@ -642,7 +645,7 @@
         <v>0.138888888888889</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G5" s="13" t="n">
         <v>0.0416666666666667</v>
@@ -657,18 +660,18 @@
         <v>0.166666666666667</v>
       </c>
       <c r="K5" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D6" s="12" t="n">
         <v>45861</v>
@@ -677,7 +680,7 @@
         <v>0.784722222222222</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G6" s="13" t="n">
         <v>0.708333333333333</v>
@@ -692,18 +695,18 @@
         <v>0.395833333333333</v>
       </c>
       <c r="K6" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D7" s="12" t="n">
         <v>45863</v>
@@ -712,7 +715,7 @@
         <v>0.850694444444444</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G7" s="13" t="n">
         <v>0.78125</v>
@@ -727,10 +730,10 @@
         <v>0.569444444444444</v>
       </c>
       <c r="K7" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
